--- a/2_segment_interval/statistics.xlsx
+++ b/2_segment_interval/statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\axillv\Polydiastates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77640E44-6619-4D38-82EE-B246E8947054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD79453-6E20-4CC2-9339-3B12FFED3B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>INSERTIONS</t>
   </si>
@@ -87,6 +87,27 @@
   </si>
   <si>
     <t>range (-3,6 to 3,6)</t>
+  </si>
+  <si>
+    <t>INTERVAL</t>
+  </si>
+  <si>
+    <t>insertion</t>
+  </si>
+  <si>
+    <t>query</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>600-700</t>
+  </si>
+  <si>
+    <t>deletion</t>
+  </si>
+  <si>
+    <t>SEGMENT</t>
   </si>
 </sst>
 </file>
@@ -176,27 +197,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -204,13 +210,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA10"/>
+  <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -520,749 +544,903 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="K2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B3" s="2">
         <v>0.22899900000000001</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C3" s="2">
         <v>0.59319500000000003</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D3" s="2">
         <v>1.7286539999999999</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E3" s="2">
         <v>4.1572209999999998</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F3" s="2">
         <v>6.9347630000000002</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G3" s="2">
         <v>9.4689510000000006</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H3" s="2">
         <v>10.525233</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I3" s="2">
         <v>16.540472999999999</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L3" s="2">
         <v>0.46619300000000002</v>
       </c>
-      <c r="M2" s="15">
+      <c r="M3" s="8">
         <v>25925.328323000002</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N3" s="2">
         <v>0.65822499999999995</v>
       </c>
-      <c r="O2" s="15">
+      <c r="O3" s="8">
         <v>2253.2361110000002</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P3" s="2">
         <v>1.9924649999999999</v>
       </c>
-      <c r="Q2" s="15">
+      <c r="Q3" s="8">
         <v>290.69572199999999</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R3" s="2">
         <v>2.5921150000000002</v>
       </c>
-      <c r="S2" s="15">
+      <c r="S3" s="8">
         <v>29.163567</v>
       </c>
-      <c r="T2" s="3">
+      <c r="T3" s="2">
         <v>3.1930269999999998</v>
       </c>
-      <c r="U2" s="15">
+      <c r="U3" s="8">
         <v>3.2377509999999998</v>
       </c>
-      <c r="V2" s="3">
+      <c r="V3" s="2">
         <v>4.4907589999999997</v>
       </c>
-      <c r="W2" s="15">
+      <c r="W3" s="8">
         <v>1.233252</v>
       </c>
-      <c r="X2" s="3">
+      <c r="X3" s="2">
         <v>4.2941500000000001</v>
       </c>
-      <c r="Y2" s="15">
+      <c r="Y3" s="8">
         <v>1.0153490000000001</v>
       </c>
-      <c r="Z2" s="3">
+      <c r="Z3" s="2">
         <v>4.2770270000000004</v>
       </c>
-      <c r="AA2" s="15">
+      <c r="AA3" s="8">
         <v>0.98977000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4">
-        <f>B2/(LOG(B10*7.3, 2))</f>
+      <c r="B4" s="3">
+        <f>B3/(LOG(B11*7.3, 2))</f>
         <v>3.6996040488978726E-2</v>
       </c>
-      <c r="C3" s="4">
-        <f t="shared" ref="C3:I3" si="0">C2/(LOG(C10*7.3, 2))</f>
+      <c r="C4" s="3">
+        <f t="shared" ref="C4:I4" si="0">C3/(LOG(C11*7.3, 2))</f>
         <v>6.2364426577582371E-2</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D4" s="3">
         <f t="shared" si="0"/>
         <v>0.13469666527127858</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E4" s="3">
         <f t="shared" si="0"/>
         <v>0.25732369731529925</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F4" s="3">
         <f t="shared" si="0"/>
         <v>0.35603901160200652</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G4" s="3">
         <f t="shared" si="0"/>
         <v>0.48614724900444778</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H4" s="3">
         <f t="shared" si="0"/>
         <v>0.40293536215093878</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I4" s="3">
         <f t="shared" si="0"/>
         <v>0.56177334325408168</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="5">
-        <f>(L$2+M$2)/(LOG(L$10*7.3, 2)+ M$2)</f>
+      <c r="L4" s="13">
+        <f>(L$3+M$3)/(LOG(L$11*7.3, 2)+ M$3)</f>
         <v>0.99977927896367991</v>
       </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="5">
-        <f t="shared" ref="N3" si="1">(N$2+O$2)/(LOG(N$10*7.3, 2)+ O$2)</f>
+      <c r="M4" s="14"/>
+      <c r="N4" s="13">
+        <f t="shared" ref="N4" si="1">(N$3+O$3)/(LOG(N$11*7.3, 2)+ O$3)</f>
         <v>0.99608726725766472</v>
       </c>
-      <c r="O3" s="6"/>
-      <c r="P3" s="5">
-        <f t="shared" ref="P3" si="2">(P$2+Q$2)/(LOG(P$10*7.3, 2)+ Q$2)</f>
+      <c r="O4" s="14"/>
+      <c r="P4" s="13">
+        <f t="shared" ref="P4" si="2">(P$3+Q$3)/(LOG(P$11*7.3, 2)+ Q$3)</f>
         <v>0.96428281527100657</v>
       </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="5">
-        <f t="shared" ref="R3" si="3">(R$2+S$2)/(LOG(R$10*7.3, 2)+ S$2)</f>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="13">
+        <f t="shared" ref="R4" si="3">(R$3+S$3)/(LOG(R$11*7.3, 2)+ S$3)</f>
         <v>0.70071181589073672</v>
       </c>
-      <c r="S3" s="6"/>
-      <c r="T3" s="5">
-        <f t="shared" ref="T3" si="4">(T$2+U$2)/(LOG(T$10*7.3, 2)+ U$2)</f>
+      <c r="S4" s="14"/>
+      <c r="T4" s="13">
+        <f t="shared" ref="T4" si="4">(T$3+U$3)/(LOG(T$11*7.3, 2)+ U$3)</f>
         <v>0.2831035211805738</v>
       </c>
-      <c r="U3" s="6"/>
-      <c r="V3" s="5">
-        <f t="shared" ref="V3" si="5">(V$2+W$2)/(LOG(V$10*7.3, 2)+ W$2)</f>
+      <c r="U4" s="14"/>
+      <c r="V4" s="13">
+        <f t="shared" ref="V4" si="5">(V$3+W$3)/(LOG(V$11*7.3, 2)+ W$3)</f>
         <v>0.23817577480168967</v>
       </c>
-      <c r="W3" s="6"/>
-      <c r="X3" s="5">
-        <f t="shared" ref="X3" si="6">(X$2+Y$2)/(LOG(X$10*7.3, 2)+ Y$2)</f>
+      <c r="W4" s="14"/>
+      <c r="X4" s="13">
+        <f t="shared" ref="X4" si="6">(X$3+Y$3)/(LOG(X$11*7.3, 2)+ Y$3)</f>
         <v>0.19565720066601683</v>
       </c>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="5">
-        <f t="shared" ref="Z3" si="7">(Z$2+AA$2)/(LOG(Z$10*7.3, 2)+ AA$2)</f>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="13">
+        <f t="shared" ref="Z4" si="7">(Z$3+AA$3)/(LOG(Z$11*7.3, 2)+ AA$3)</f>
         <v>0.17306151916647039</v>
       </c>
-      <c r="AA3" s="6"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="AA4" s="14"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7">
-        <f>B3/$B3</f>
+      <c r="B5" s="4">
+        <f>B4/$B4</f>
         <v>1</v>
       </c>
-      <c r="C4" s="7">
-        <f t="shared" ref="C4:G4" si="8">C3/$B$3</f>
+      <c r="C5" s="4">
+        <f t="shared" ref="C5:G5" si="8">C4/$B$4</f>
         <v>1.6857054364009845</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D5" s="4">
         <f t="shared" si="8"/>
         <v>3.6408400329058259</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E5" s="4">
         <f t="shared" si="8"/>
         <v>6.9554388500563205</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F5" s="4">
         <f t="shared" si="8"/>
         <v>9.6237058586870123</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G5" s="4">
         <f t="shared" si="8"/>
         <v>13.140521055199761</v>
       </c>
-      <c r="H4" s="7">
-        <f>H3/$B$3</f>
+      <c r="H5" s="4">
+        <f>H4/$B$4</f>
         <v>10.891310443639904</v>
       </c>
-      <c r="I4" s="7">
-        <f>I3/$B$3</f>
+      <c r="I5" s="4">
+        <f>I4/$B$4</f>
         <v>15.184688302561359</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="8">
-        <f>L3/$L3</f>
+      <c r="L5" s="9">
+        <f>L4/$L4</f>
         <v>1</v>
       </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="8">
-        <f>N3/$L3</f>
+      <c r="M5" s="10"/>
+      <c r="N5" s="9">
+        <f>N4/$L4</f>
         <v>0.99630717320942863</v>
       </c>
-      <c r="O4" s="9"/>
-      <c r="P4" s="8">
-        <f t="shared" ref="P4" si="9">P3/$L3</f>
+      <c r="O5" s="10"/>
+      <c r="P5" s="9">
+        <f t="shared" ref="P5" si="9">P4/$L4</f>
         <v>0.96449569976138416</v>
       </c>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="8">
-        <f t="shared" ref="R4" si="10">R3/$L3</f>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="9">
+        <f t="shared" ref="R5" si="10">R4/$L4</f>
         <v>0.70086651187355953</v>
       </c>
-      <c r="S4" s="9"/>
-      <c r="T4" s="8">
-        <f t="shared" ref="T4" si="11">T3/$L3</f>
+      <c r="S5" s="10"/>
+      <c r="T5" s="9">
+        <f t="shared" ref="T5" si="11">T4/$L4</f>
         <v>0.28316602187837342</v>
       </c>
-      <c r="U4" s="9"/>
-      <c r="V4" s="8">
-        <f t="shared" ref="V4" si="12">V3/$L3</f>
+      <c r="U5" s="10"/>
+      <c r="V5" s="9">
+        <f t="shared" ref="V5" si="12">V4/$L4</f>
         <v>0.23822835681148594</v>
       </c>
-      <c r="W4" s="9"/>
-      <c r="X4" s="8">
-        <f t="shared" ref="X4" si="13">X3/$L3</f>
+      <c r="W5" s="10"/>
+      <c r="X5" s="9">
+        <f t="shared" ref="X5" si="13">X4/$L4</f>
         <v>0.19570039586019936</v>
       </c>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="8">
-        <f t="shared" ref="Z4" si="14">Z3/$L3</f>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="9">
+        <f t="shared" ref="Z5" si="14">Z4/$L4</f>
         <v>0.17309972591736159</v>
       </c>
-      <c r="AA4" s="9"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="AA5" s="10"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4">
-        <f>B2/(LOG(B10*7.3, 2)^3)</f>
+      <c r="B6" s="3">
+        <f>B3/(LOG(B11*7.3, 2)^3)</f>
         <v>9.6560291133977413E-4</v>
       </c>
-      <c r="C5" s="4">
-        <f t="shared" ref="C5:I5" si="15">C2/(LOG(C10*7.3, 2)^3)</f>
+      <c r="C6" s="3">
+        <f t="shared" ref="C6:I6" si="15">C3/(LOG(C11*7.3, 2)^3)</f>
         <v>6.8931199675320511E-4</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D6" s="3">
         <f t="shared" si="15"/>
         <v>8.1781369849895477E-4</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E6" s="3">
         <f t="shared" si="15"/>
         <v>9.8590058366587545E-4</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F6" s="3">
         <f t="shared" si="15"/>
         <v>9.3848970619430858E-4</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G6" s="3">
         <f t="shared" si="15"/>
         <v>1.2814443755263596E-3</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H6" s="3">
         <f t="shared" si="15"/>
         <v>5.9053101587739471E-4</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I6" s="3">
         <f t="shared" si="15"/>
         <v>6.4801869234290652E-4</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="5">
-        <f>(L$2+M$2*10)/(LOG(L$10*7.3, 2)+ M$2*10)</f>
+      <c r="L6" s="13">
+        <f>(L$3+M$3*10)/(LOG(L$11*7.3, 2)+ M$3*10)</f>
         <v>0.99997792315362122</v>
       </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="5">
-        <f t="shared" ref="N5:AA5" si="16">(N$2+O$2*10)/(LOG(N$10*7.3, 2)+ O$2*10)</f>
+      <c r="M6" s="14"/>
+      <c r="N6" s="13">
+        <f t="shared" ref="N6" si="16">(N$3+O$3*10)/(LOG(N$11*7.3, 2)+ O$3*10)</f>
         <v>0.99960724081323171</v>
       </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="5">
-        <f t="shared" ref="P5:AA5" si="17">(P$2+Q$2*10)/(LOG(P$10*7.3, 2)+ Q$2*10)</f>
+      <c r="O6" s="14"/>
+      <c r="P6" s="13">
+        <f t="shared" ref="P6" si="17">(P$3+Q$3*10)/(LOG(P$11*7.3, 2)+ Q$3*10)</f>
         <v>0.9962869889943573</v>
       </c>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="5">
-        <f t="shared" ref="R5:AA5" si="18">(R$2+S$2*10)/(LOG(R$10*7.3, 2)+ S$2*10)</f>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="13">
+        <f t="shared" ref="R6" si="18">(R$3+S$3*10)/(LOG(R$11*7.3, 2)+ S$3*10)</f>
         <v>0.95593281949214426</v>
       </c>
-      <c r="S5" s="6"/>
-      <c r="T5" s="5">
-        <f t="shared" ref="T5:AA5" si="19">(T$2+U$2*10)/(LOG(T$10*7.3, 2)+ U$2*10)</f>
+      <c r="S6" s="14"/>
+      <c r="T6" s="13">
+        <f t="shared" ref="T6" si="19">(T$3+U$3*10)/(LOG(T$11*7.3, 2)+ U$3*10)</f>
         <v>0.68596094498255844</v>
       </c>
-      <c r="U5" s="6"/>
-      <c r="V5" s="5">
-        <f t="shared" ref="V5:AA5" si="20">(V$2+W$2*10)/(LOG(V$10*7.3, 2)+ W$2*10)</f>
+      <c r="U6" s="14"/>
+      <c r="V6" s="13">
+        <f t="shared" ref="V6" si="20">(V$3+W$3*10)/(LOG(V$11*7.3, 2)+ W$3*10)</f>
         <v>0.47885933527655566</v>
       </c>
-      <c r="W5" s="6"/>
-      <c r="X5" s="5">
-        <f t="shared" ref="X5:AA5" si="21">(X$2+Y$2*10)/(LOG(X$10*7.3, 2)+ Y$2*10)</f>
+      <c r="W6" s="14"/>
+      <c r="X6" s="13">
+        <f t="shared" ref="X6" si="21">(X$3+Y$3*10)/(LOG(X$11*7.3, 2)+ Y$3*10)</f>
         <v>0.3982821929139938</v>
       </c>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="5">
-        <f t="shared" ref="Z5:AA5" si="22">(Z$2+AA$2*10)/(LOG(Z$10*7.3, 2)+ AA$2*10)</f>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="13">
+        <f t="shared" ref="Z6" si="22">(Z$3+AA$3*10)/(LOG(Z$11*7.3, 2)+ AA$3*10)</f>
         <v>0.36030399210074449</v>
       </c>
-      <c r="AA5" s="6"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="AA6" s="14"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="7">
-        <f>B5/$B5</f>
+      <c r="B7" s="4">
+        <f>B6/$B6</f>
         <v>1</v>
       </c>
-      <c r="C6" s="7">
-        <f t="shared" ref="C6:I6" si="23">C5/$B5</f>
+      <c r="C7" s="4">
+        <f t="shared" ref="C7:I7" si="23">C6/$B6</f>
         <v>0.71386694122202332</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D7" s="4">
         <f t="shared" si="23"/>
         <v>0.84694618139069011</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E7" s="4">
         <f t="shared" si="23"/>
         <v>1.0210207240344154</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F7" s="4">
         <f t="shared" si="23"/>
         <v>0.97192095754159857</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G7" s="4">
         <f t="shared" si="23"/>
         <v>1.3270924936922108</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H7" s="4">
         <f t="shared" si="23"/>
         <v>0.61156714519225386</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I7" s="4">
         <f t="shared" si="23"/>
         <v>0.67110267039665461</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="8">
-        <f>L5/$L5</f>
+      <c r="L7" s="9">
+        <f>L6/$L6</f>
         <v>1</v>
       </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="8">
-        <f>N5/$L5</f>
+      <c r="M7" s="10"/>
+      <c r="N7" s="9">
+        <f>N6/$L6</f>
         <v>0.99962930947593276</v>
       </c>
-      <c r="O6" s="9"/>
-      <c r="P6" s="8">
-        <f t="shared" ref="P6" si="24">P5/$L5</f>
+      <c r="O7" s="10"/>
+      <c r="P7" s="9">
+        <f t="shared" ref="P7" si="24">P6/$L6</f>
         <v>0.99630898435475068</v>
       </c>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="8">
-        <f t="shared" ref="R6" si="25">R5/$L5</f>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="9">
+        <f t="shared" ref="R7" si="25">R6/$L6</f>
         <v>0.95595392394006828</v>
       </c>
-      <c r="S6" s="9"/>
-      <c r="T6" s="8">
-        <f t="shared" ref="T6" si="26">T5/$L5</f>
+      <c r="S7" s="10"/>
+      <c r="T7" s="9">
+        <f t="shared" ref="T7" si="26">T6/$L6</f>
         <v>0.6859760891712986</v>
       </c>
-      <c r="U6" s="9"/>
-      <c r="V6" s="8">
-        <f t="shared" ref="V6" si="27">V5/$L5</f>
+      <c r="U7" s="10"/>
+      <c r="V7" s="9">
+        <f t="shared" ref="V7" si="27">V6/$L6</f>
         <v>0.47886990721393263</v>
       </c>
-      <c r="W6" s="9"/>
-      <c r="X6" s="8">
-        <f t="shared" ref="X6" si="28">X5/$L5</f>
+      <c r="W7" s="10"/>
+      <c r="X7" s="9">
+        <f t="shared" ref="X7" si="28">X6/$L6</f>
         <v>0.39829098592290407</v>
       </c>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="8">
-        <f t="shared" ref="Z6" si="29">Z5/$L5</f>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="9">
+        <f t="shared" ref="Z7" si="29">Z6/$L6</f>
         <v>0.36031194665223915</v>
       </c>
-      <c r="AA6" s="9"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="AA7" s="10"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4">
-        <f>B2/(SQRT(B10*7.3))</f>
+      <c r="B8" s="3">
+        <f>B3/(SQRT(B11*7.3))</f>
         <v>2.6802305666766706E-2</v>
       </c>
-      <c r="C7" s="4">
-        <f t="shared" ref="C7:I7" si="30">C2/(SQRT(C10*7.3))</f>
+      <c r="C8" s="3">
+        <f t="shared" ref="C8:I8" si="30">C3/(SQRT(C11*7.3))</f>
         <v>2.1955131956158423E-2</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D8" s="3">
         <f t="shared" si="30"/>
         <v>2.0232364726517987E-2</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E8" s="3">
         <f t="shared" si="30"/>
         <v>1.5386565231654492E-2</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F8" s="3">
         <f t="shared" si="30"/>
         <v>8.1165261705328003E-3</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G8" s="3">
         <f t="shared" si="30"/>
         <v>1.1082568877839477E-2</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H8" s="3">
         <f t="shared" si="30"/>
         <v>1.2318853448265708E-3</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I8" s="3">
         <f t="shared" si="30"/>
         <v>6.1219037134884065E-4</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="5">
-        <f t="shared" ref="L7:Y7" si="31">(L$2+M$2*100)/(LOG(L$10*7.3, 2)+ M$2*100)</f>
+      <c r="L8" s="13">
+        <f t="shared" ref="L8" si="31">(L$3+M$3*100)/(LOG(L$11*7.3, 2)+ M$3*100)</f>
         <v>0.9999977922679234</v>
       </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="5">
-        <f>(N$2+O$2*100)/(LOG(N$10*7.3, 2)+ O$2*100)</f>
+      <c r="M8" s="14"/>
+      <c r="N8" s="13">
+        <f>(N$3+O$3*100)/(LOG(N$11*7.3, 2)+ O$3*100)</f>
         <v>0.99996070916010171</v>
       </c>
-      <c r="O7" s="6"/>
-      <c r="P7" s="5">
-        <f>(P$2+Q$2*100)/(LOG(P$10*7.3, 2)+ Q$2*100)</f>
+      <c r="O8" s="14"/>
+      <c r="P8" s="13">
+        <f>(P$3+Q$3*100)/(LOG(P$11*7.3, 2)+ Q$3*100)</f>
         <v>0.99962722424708905</v>
       </c>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="5">
-        <f t="shared" ref="R7:Y7" si="32">(R$2+S$2*100)/(LOG(R$10*7.3, 2)+ S$2*100)</f>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="13">
+        <f t="shared" ref="R8" si="32">(R$3+S$3*100)/(LOG(R$11*7.3, 2)+ S$3*100)</f>
         <v>0.99537478707160443</v>
       </c>
-      <c r="S7" s="6"/>
-      <c r="T7" s="5">
-        <f t="shared" ref="T7:Y7" si="33">(T$2+U$2*100)/(LOG(T$10*7.3, 2)+ U$2*100)</f>
+      <c r="S8" s="14"/>
+      <c r="T8" s="13">
+        <f t="shared" ref="T8" si="33">(T$3+U$3*100)/(LOG(T$11*7.3, 2)+ U$3*100)</f>
         <v>0.95255823790990857</v>
       </c>
-      <c r="U7" s="6"/>
-      <c r="V7" s="5">
-        <f t="shared" ref="V7:Y7" si="34">(V$2+W$2*100)/(LOG(V$10*7.3, 2)+ W$2*100)</f>
+      <c r="U8" s="14"/>
+      <c r="V8" s="13">
+        <f t="shared" ref="V8" si="34">(V$3+W$3*100)/(LOG(V$11*7.3, 2)+ W$3*100)</f>
         <v>0.87470488962871251</v>
       </c>
-      <c r="W7" s="6"/>
-      <c r="X7" s="5">
-        <f t="shared" ref="X7:Y7" si="35">(X$2+Y$2*100)/(LOG(X$10*7.3, 2)+ Y$2*100)</f>
+      <c r="W8" s="14"/>
+      <c r="X8" s="13">
+        <f t="shared" ref="X8" si="35">(X$3+Y$3*100)/(LOG(X$11*7.3, 2)+ Y$3*100)</f>
         <v>0.82901553387357674</v>
       </c>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="5">
-        <f>(Z$2+AA$2*100)/(LOG(Z$10*7.3, 2)+ AA$2*100)</f>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="13">
+        <f>(Z$3+AA$3*100)/(LOG(Z$11*7.3, 2)+ AA$3*100)</f>
         <v>0.80403183870430672</v>
       </c>
-      <c r="AA7" s="6"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="AA8" s="14"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="7">
-        <f>B7/$B7</f>
+      <c r="B9" s="4">
+        <f>B8/$B8</f>
         <v>1</v>
       </c>
-      <c r="C8" s="7">
-        <f t="shared" ref="C8:I8" si="36">C7/$B7</f>
+      <c r="C9" s="4">
+        <f t="shared" ref="C9:I9" si="36">C8/$B8</f>
         <v>0.81915086818002769</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D9" s="4">
         <f t="shared" si="36"/>
         <v>0.7548740387512608</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E9" s="4">
         <f t="shared" si="36"/>
         <v>0.57407617922710785</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F9" s="4">
         <f t="shared" si="36"/>
         <v>0.3028294010017511</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G9" s="4">
         <f t="shared" si="36"/>
         <v>0.41349311569046149</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H9" s="4">
         <f t="shared" si="36"/>
         <v>4.5961916864265775E-2</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I9" s="4">
         <f t="shared" si="36"/>
         <v>2.2840959242843087E-2</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="8">
-        <f>L7/$L7</f>
+      <c r="L9" s="9">
+        <f>L8/$L8</f>
         <v>1</v>
       </c>
-      <c r="M8" s="9"/>
-      <c r="N8" s="8">
-        <f t="shared" ref="N8" si="37">N7/$L7</f>
+      <c r="M9" s="10"/>
+      <c r="N9" s="9">
+        <f t="shared" ref="N9" si="37">N8/$L8</f>
         <v>0.99996291681030858</v>
       </c>
-      <c r="O8" s="9"/>
-      <c r="P8" s="8">
-        <f t="shared" ref="P8" si="38">P7/$L7</f>
+      <c r="O9" s="10"/>
+      <c r="P9" s="9">
+        <f t="shared" ref="P9" si="38">P8/$L8</f>
         <v>0.99962943116104896</v>
       </c>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="8">
-        <f t="shared" ref="R8" si="39">R7/$L7</f>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="9">
+        <f t="shared" ref="R9" si="39">R8/$L8</f>
         <v>0.99537698459730162</v>
       </c>
-      <c r="S8" s="9"/>
-      <c r="T8" s="8">
-        <f t="shared" ref="T8" si="40">T7/$L7</f>
+      <c r="S9" s="10"/>
+      <c r="T9" s="9">
+        <f t="shared" ref="T9" si="40">T8/$L8</f>
         <v>0.95256034090792807</v>
       </c>
-      <c r="U8" s="9"/>
-      <c r="V8" s="8">
-        <f t="shared" ref="V8" si="41">V7/$L7</f>
+      <c r="U9" s="10"/>
+      <c r="V9" s="9">
+        <f t="shared" ref="V9" si="41">V8/$L8</f>
         <v>0.87470682074701833</v>
       </c>
-      <c r="W8" s="9"/>
-      <c r="X8" s="8">
-        <f t="shared" ref="X8" si="42">X7/$L7</f>
+      <c r="W9" s="10"/>
+      <c r="X9" s="9">
+        <f t="shared" ref="X9" si="42">X8/$L8</f>
         <v>0.8290173641218036</v>
       </c>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="8">
-        <f t="shared" ref="Z8" si="43">Z7/$L7</f>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="9">
+        <f t="shared" ref="Z9" si="43">Z8/$L8</f>
         <v>0.80403361379510652</v>
       </c>
-      <c r="AA8" s="9"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="11"/>
+      <c r="AA9" s="10"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="6"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B11" s="7">
         <v>10</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C11" s="7">
         <v>100</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D11" s="7">
         <v>1000</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E11" s="7">
         <v>10000</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F11" s="7">
         <v>100000</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G11" s="7">
         <v>100000</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H11" s="7">
         <v>10000000</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I11" s="7">
         <v>100000000</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L11" s="11">
         <v>10</v>
       </c>
-      <c r="M10" s="14"/>
-      <c r="N10" s="13">
+      <c r="M11" s="12"/>
+      <c r="N11" s="11">
         <v>100</v>
       </c>
-      <c r="O10" s="14"/>
-      <c r="P10" s="13">
+      <c r="O11" s="12"/>
+      <c r="P11" s="11">
         <v>1000</v>
       </c>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="13">
+      <c r="Q11" s="12"/>
+      <c r="R11" s="11">
         <v>10000</v>
       </c>
-      <c r="S10" s="14"/>
-      <c r="T10" s="13">
+      <c r="S11" s="12"/>
+      <c r="T11" s="11">
         <v>100000</v>
       </c>
-      <c r="U10" s="14"/>
-      <c r="V10" s="13">
+      <c r="U11" s="12"/>
+      <c r="V11" s="11">
         <v>1000000</v>
       </c>
-      <c r="W10" s="14"/>
-      <c r="X10" s="13">
+      <c r="W11" s="12"/>
+      <c r="X11" s="11">
         <v>10000000</v>
       </c>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="13">
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="11">
         <v>100000000</v>
       </c>
-      <c r="AA10" s="14"/>
+      <c r="AA11" s="12"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>155041497</v>
+      </c>
+      <c r="B20">
+        <v>155.04149699999999</v>
+      </c>
+      <c r="C20">
+        <v>2.5840249499999999</v>
+      </c>
+      <c r="G20" s="16">
+        <v>100000</v>
+      </c>
+      <c r="H20">
+        <v>1731.80664</v>
+      </c>
+      <c r="I20" s="17">
+        <v>5.48E-6</v>
+      </c>
+      <c r="J20" s="18">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G21" s="16">
+        <v>10000</v>
+      </c>
+      <c r="H21">
+        <v>55.478999999999999</v>
+      </c>
+      <c r="I21" s="17">
+        <v>8.7900000000000005E-6</v>
+      </c>
+      <c r="J21" s="18">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G22" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H22">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="I22" s="17">
+        <v>7.4800000000000004E-6</v>
+      </c>
+      <c r="J22" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>4.732673267</v>
+      </c>
+      <c r="C23">
+        <v>0.50074781000000002</v>
+      </c>
+      <c r="D23" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>98880</v>
+      </c>
+      <c r="B24">
+        <v>4226.3548389999996</v>
+      </c>
+      <c r="C24">
+        <v>13.36490749</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C25">
+        <v>0.60229895700000002</v>
+      </c>
+      <c r="D25" s="18">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="17">
+        <v>1000</v>
+      </c>
+      <c r="B29">
+        <v>29.3</v>
+      </c>
+      <c r="C29" s="17">
+        <v>2.6099999999999999E-3</v>
+      </c>
+      <c r="D29" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="17">
+        <v>10000</v>
+      </c>
+      <c r="B30">
+        <v>696.38</v>
+      </c>
+      <c r="C30">
+        <v>2.772339E-3</v>
+      </c>
+      <c r="D30" s="18">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="17">
+        <v>100000</v>
+      </c>
+      <c r="B31">
+        <v>15149.1</v>
+      </c>
+      <c r="C31">
+        <v>2.6939329999999999E-3</v>
+      </c>
+      <c r="D31" s="18">
+        <v>1.03</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="K2:AA2"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="R8:S8"/>
     <mergeCell ref="T8:U8"/>
     <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="R7:S7"/>
     <mergeCell ref="T7:U7"/>
     <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="K1:AA1"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:W9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
